--- a/日本版コアインボイス/日本版コアインボイス2021-01-18.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298D5B1-17BE-5A4C-B599-7BC4968AC95C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36495FFC-870E-D84F-91BE-E62E16C39C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="2503">
   <si>
     <t>ID</t>
   </si>
@@ -11451,19 +11451,49 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">A code specifying the functional type of the Invoice.
+NOTE A-NZ Self-Billing Extension
+The UBL 2.1 Invoice schema is used for self-billing invoices. As with BIS Billing 3.0 and the A-NZ invoice extension, the self-billing extension uses a document type code from the UN/CEFACT code list 1001, D.16B, used at the cbc:InvoiceTypeCode or cbc:CreditNoteTypeCode element for self-billed invoices or self-billed credit notes respectively:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>˃	261 – self-billed credit note
+˃	389 – self-billed invoice</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>An identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms.
+NOTE1 Profile 01 - Billing
+In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
+Type Invoice and credit note
+Element cbc:CustomizationID urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0
+ NOTE2 A-NZ Self-Billing Extension
+Identifying the A-NZ Self-Billing Extension
+The UBL element cbc:customizationID is an identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms . 
+Australian and New Zealand Self-billing Invoicing (Customization ID) BT-24 Specification identification
+urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:selfbilling:international:aunz:3.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>Identifies the business process context in which the transaction appears, to enable the Buyer to process the Invoice in an appropriate way.
-NOTE:Identifying the A-NZ Self-Billing Extension
+NOTE1 Profile 01 - Billing
+In the table below you will find the values to be used as the specification identifier (BT-24) and the business process type (BT-23) for this profile
+Type Invoice and credit note
+Element cbc:ProfileID urn:fdc:peppol.eu:2017:poacc:billing:01:1.0
+NOTE2 A-NZ Self-Billing Extension
+Identifying the A-NZ Self-Billing Extension
 The UBL element cbc:ProfileID is used to identify the business process context in which the transaction occurs. 
 Business process type (Profile ID) BT-23 Business process type
 urn:fdc:peppol.eu:2017:poacc:selfbilling:01:1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>An identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms.
-NOTE: Identifying the A-NZ Self-Billing Extension
-The UBL element cbc:customizationID is an identification of the specification containing the total set of rules regarding semantic content, cardinalities and business rules to which the data contained in the instance document conforms . 
-Australian and New Zealand Self-billing Invoicing (Customization ID) BT-24 Specification identification
-urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:selfbilling:international:aunz:3.0</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -11474,7 +11504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]\Te\x\t"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11606,6 +11636,13 @@
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -16296,8 +16333,8 @@
   <dimension ref="A1:AQ999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P56" sqref="P56"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -17395,7 +17432,7 @@
         <v>1813</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>62</v>
+        <v>2500</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="22" t="s">
@@ -19953,7 +19990,7 @@
       <c r="AJ52" s="197"/>
       <c r="AK52" s="197"/>
     </row>
-    <row r="53" spans="1:37" ht="150">
+    <row r="53" spans="1:37" ht="300">
       <c r="A53" s="49">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -19995,7 +20032,7 @@
         <v>221</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="Q53" s="23"/>
       <c r="R53" s="22" t="s">
@@ -20041,7 +20078,7 @@
       <c r="AJ53" s="197"/>
       <c r="AK53" s="197"/>
     </row>
-    <row r="54" spans="1:37" ht="225">
+    <row r="54" spans="1:37" ht="384">
       <c r="A54" s="49">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -49506,7 +49543,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>